--- a/AssetSelling/asset_selling_policy_parameters.xlsx
+++ b/AssetSelling/asset_selling_policy_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnascime/Dropbox/PythonProjects/ORF411/github_private/seqdecisionlib_Asset/Asset selling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\root\code_repo\optimization\AssetSelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15C2239-7512-A040-BCCB-1AB3553C23EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD07945-1DD8-4CA7-8307-C189D646EC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="4440" windowWidth="17740" windowHeight="8960" activeTab="3" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
+    <workbookView xWindow="12280" yWindow="3590" windowWidth="14070" windowHeight="11170" activeTab="2" xr2:uid="{1DA193D8-6EE7-6A44-BDCF-D14F5A013405}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>sell_low</t>
   </si>
@@ -141,7 +141,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,7 +151,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,7 +167,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +177,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,16 +193,20 @@
   <si>
     <t>DiscountFactor</t>
   </si>
+  <si>
+    <t>track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,8 +214,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -246,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,9 +273,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -302,7 +313,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -408,7 +419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,15 +572,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.3046875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -577,7 +588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -585,7 +596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -593,7 +604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -601,7 +612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="68">
+    <row r="5" spans="1:2" ht="70" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -609,7 +620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="51">
+    <row r="6" spans="1:2" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -617,17 +628,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="51">
+    <row r="7" spans="1:2" ht="52.5" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34">
+    <row r="8" spans="1:2" ht="35" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34">
+    <row r="9" spans="1:2" ht="35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -636,6 +647,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -646,12 +658,12 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -661,7 +673,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,7 +684,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -685,7 +697,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -698,31 +710,32 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -731,16 +744,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9865D1F9-4F25-7149-9B83-5EBB8C504130}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -757,7 +770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -771,10 +784,11 @@
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -783,16 +797,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B272AC-B9F0-6245-988D-8924FC3BFAF0}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="5" width="13.1640625" customWidth="1"/>
+    <col min="2" max="5" width="13.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -824,9 +838,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -857,6 +871,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -869,9 +884,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -882,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -896,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -910,7 +925,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -925,6 +940,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>